--- a/Config/Event.xlsx
+++ b/Config/Event.xlsx
@@ -18,6 +18,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>PJ</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>eventPackageID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
@@ -33,107 +58,123 @@
     <t>结果1</t>
   </si>
   <si>
+    <t>结果2</t>
+  </si>
+  <si>
+    <t>奖励2</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Describe</t>
+  </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
+    <t>Reward1</t>
+  </si>
+  <si>
+    <t>Result2</t>
+  </si>
+  <si>
+    <t>Reward2</t>
+  </si>
+  <si>
+    <t>求饶</t>
+  </si>
+  <si>
+    <t>套个近乎（失去1瓶酒）</t>
+  </si>
+  <si>
+    <t>又做白日梦了</t>
+  </si>
+  <si>
+    <t>偷偷拿走衣服</t>
+  </si>
+  <si>
+    <t>我可是正经人</t>
+  </si>
+  <si>
+    <t>小喽喽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>几个小喽喽挡住了你的去路。\n"嘿嘿…陪哥几个玩玩呗？"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>奖励1</t>
-  </si>
-  <si>
-    <t>结果2</t>
-  </si>
-  <si>
-    <t>奖励2</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Describe</t>
-  </si>
-  <si>
-    <t>Result1</t>
-  </si>
-  <si>
-    <t>Reward1</t>
-  </si>
-  <si>
-    <t>Result2</t>
-  </si>
-  <si>
-    <t>Reward2</t>
-  </si>
-  <si>
-    <t>烟雨庄老奶奶</t>
-  </si>
-  <si>
-    <t>你匆匆忙忙的碰倒了一个老奶奶。是否要扶起。\n"哎哟...哎哟...疼死我咯.."</t>
-  </si>
-  <si>
-    <t>扶！</t>
-  </si>
-  <si>
-    <t>当没看到！</t>
-  </si>
-  <si>
-    <t>烟雨庄小流氓</t>
-  </si>
-  <si>
-    <t>几个小流氓挡住了你的去路，看来是不能善了了。\n"嘿嘿...小子，知道这条街是谁罩的不？"</t>
-  </si>
-  <si>
-    <t>求饶</t>
-  </si>
-  <si>
-    <t>开干！</t>
-  </si>
-  <si>
-    <t>烟雨庄小毛贼</t>
-  </si>
-  <si>
-    <t>几个小毛贼在偷一位老人家的钱罐。这都是一辈子攒下的血汗钱呀。\n"嘿嘿...想不到这老头卖烧饼还挺挣钱的..."</t>
-  </si>
-  <si>
-    <t>出手！</t>
-  </si>
-  <si>
-    <t>我什么都没看到...</t>
-  </si>
-  <si>
-    <t>烟雨庄酒鬼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>街边乞丐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>路边有一乞丐，是否要施舍点银两。\n"大爷行行好…大爷行行好..."</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>给钱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当没看到</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>开干</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美女</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门龙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门龙正在调戏良家妇女，是否要上前帮忙？\n"嘿嘿嘿~~小妞陪大爷我玩玩~~"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆怯离开</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>老酒鬼虽然穿的破破烂烂，但是隐隐有不凡的气度，说不定是隐士高人。\n"酒...此酒只应天上有...嗝..好酒.."</t>
-  </si>
-  <si>
-    <t>套个近乎（失去1瓶酒）</t>
-  </si>
-  <si>
-    <t>又做白日梦了</t>
-  </si>
-  <si>
-    <t>烟雨庄小仙女</t>
-  </si>
-  <si>
-    <t>小仙女在河中沐浴，河边的石头下压着她的衣衫，这真是千载难逢的好机会。\n"~~ 〆(???@) (((*&amp;#xF"</t>
-  </si>
-  <si>
-    <t>偷偷拿走衣服</t>
-  </si>
-  <si>
-    <t>我可是正经人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>老酒鬼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一美女正在河中沐浴，河边的石头下压着她的衣衫，这真是千载难逢的好机会。\n"~~ 〆(???@) (((*&amp;#xF"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +333,14 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1077,12 +1126,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="68.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1098,59 +1152,59 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1158,19 +1212,19 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2002</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1184,13 +1238,13 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>2003</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>2004</v>
@@ -1201,19 +1255,19 @@
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>2004</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1221,19 +1275,19 @@
         <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>2005</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1241,20 +1295,25 @@
         <v>10005</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>2006</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config/Event.xlsx
+++ b/Config/Event.xlsx
@@ -1130,12 +1130,12 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="68.375" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">

--- a/Config/Event.xlsx
+++ b/Config/Event.xlsx
@@ -24,7 +24,7 @@
     <author>PJ</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,24 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>eventPackageID</t>
+          <t>1、战斗
+2、掉落</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1、战斗
+2、掉落</t>
         </r>
       </text>
     </comment>
@@ -44,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>事件ID</t>
   </si>
@@ -55,118 +72,152 @@
     <t>事件描述</t>
   </si>
   <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Describe</t>
+  </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
+    <t>求饶</t>
+  </si>
+  <si>
+    <t>套个近乎（失去1瓶酒）</t>
+  </si>
+  <si>
+    <t>又做白日梦了</t>
+  </si>
+  <si>
+    <t>偷偷拿走衣服</t>
+  </si>
+  <si>
+    <t>我可是正经人</t>
+  </si>
+  <si>
+    <t>小喽喽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>几个小喽喽挡住了你的去路。\n"嘿嘿…陪哥几个玩玩呗？"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>街边乞丐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>路边有一乞丐，是否要施舍点银两。\n"大爷行行好…大爷行行好..."</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>给钱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当没看到</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>开干</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美女</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门龙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门龙正在调戏良家妇女，是否要上前帮忙？\n"嘿嘿嘿~~小妞陪大爷我玩玩~~"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆怯离开</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>老酒鬼虽然穿的破破烂烂，但是隐隐有不凡的气度，说不定是隐士高人。\n"酒...此酒只应天上有...嗝..好酒.."</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>老酒鬼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一美女正在河中沐浴，河边的石头下压着她的衣衫，这真是千载难逢的好机会。\n"~~ 〆(???@) (((*&amp;#xF"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属场景</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发几率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>结果1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果描述1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果描述2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>结果2</t>
-  </si>
-  <si>
-    <t>奖励2</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Describe</t>
-  </si>
-  <si>
-    <t>Result1</t>
-  </si>
-  <si>
-    <t>Reward1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Result2</t>
-  </si>
-  <si>
-    <t>Reward2</t>
-  </si>
-  <si>
-    <t>求饶</t>
-  </si>
-  <si>
-    <t>套个近乎（失去1瓶酒）</t>
-  </si>
-  <si>
-    <t>又做白日梦了</t>
-  </si>
-  <si>
-    <t>偷偷拿走衣服</t>
-  </si>
-  <si>
-    <t>我可是正经人</t>
-  </si>
-  <si>
-    <t>小喽喽</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>几个小喽喽挡住了你的去路。\n"嘿嘿…陪哥几个玩玩呗？"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>街边乞丐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>路边有一乞丐，是否要施舍点银两。\n"大爷行行好…大爷行行好..."</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>给钱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>当没看到</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>开干</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>美女</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>西门龙</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>西门龙正在调戏良家妇女，是否要上前帮忙？\n"嘿嘿嘿~~小妞陪大爷我玩玩~~"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出手</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>胆怯离开</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>老酒鬼虽然穿的破破烂烂，但是隐隐有不凡的气度，说不定是隐士高人。\n"酒...此酒只应天上有...嗝..好酒.."</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>老酒鬼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一美女正在河中沐浴，河边的石头下压着她的衣衫，这真是千载难逢的好机会。\n"~~ 〆(???@) (((*&amp;#xF"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultDesc1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultDesc2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1127,18 +1178,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="3" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,165 +1202,246 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>1001</v>
       </c>
       <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>2002</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
+      <c r="I4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10002</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>1001</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2003</v>
+      </c>
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>2003</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>2004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>1001</v>
       </c>
       <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>2004</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
+      <c r="I6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>1001</v>
       </c>
       <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>2005</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
+      <c r="I7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10005</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
+      <c r="D8">
+        <v>1001</v>
       </c>
       <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>2006</v>
       </c>
-      <c r="F8" t="s">
-        <v>19</v>
+      <c r="I8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Event.xlsx
+++ b/Config/Event.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>事件ID</t>
   </si>
@@ -109,18 +109,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>几个小喽喽挡住了你的去路。\n"嘿嘿…陪哥几个玩玩呗？"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>街边乞丐</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>路边有一乞丐，是否要施舍点银两。\n"大爷行行好…大爷行行好..."</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>给钱</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -141,10 +133,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>西门龙正在调戏良家妇女，是否要上前帮忙？\n"嘿嘿嘿~~小妞陪大爷我玩玩~~"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>出手</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -153,18 +141,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>老酒鬼虽然穿的破破烂烂，但是隐隐有不凡的气度，说不定是隐士高人。\n"酒...此酒只应天上有...嗝..好酒.."</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>老酒鬼</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>一美女正在河中沐浴，河边的石头下压着她的衣衫，这真是千载难逢的好机会。\n"~~ 〆(???@) (((*&amp;#xF"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>所属场景</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -218,6 +198,26 @@
   </si>
   <si>
     <t>ResultDesc2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>路边有一乞丐，是否要施舍点银两。\n“大爷行行好…大爷行行好…”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>几个小喽喽挡住了你的去路。\n“嘿嘿…陪哥几个玩玩呗？”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门龙正在调戏良家妇女，是否要上前帮忙？\n“嘿嘿嘿~~小妞陪大爷我玩玩~~”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>老酒鬼虽然穿的破破烂烂，但是隐隐有不凡的气度，说不定是隐士高人。\n“酒...此酒只应天上有...嗝..好酒..”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一美女正在河中沐浴，河边的石头下压着她的衣衫，这真是千载难逢的好机会。\n“~~ 〆(???@) (((*&amp;#xF”</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,28 +1202,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1257,6 +1257,9 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1269,28 +1272,28 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
         <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1298,10 +1301,10 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>1001</v>
@@ -1310,7 +1313,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1319,7 +1322,7 @@
         <v>2002</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1330,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>1001</v>
@@ -1348,13 +1351,13 @@
         <v>2003</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2004</v>
+        <v>60001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1362,10 +1365,10 @@
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>1001</v>
@@ -1374,16 +1377,16 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>2004</v>
+        <v>60002</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1391,10 +1394,10 @@
         <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>1001</v>
@@ -1420,10 +1423,10 @@
         <v>10005</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>1001</v>

--- a/Config/Event.xlsx
+++ b/Config/Event.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <t>事件ID</t>
   </si>
@@ -90,61 +90,6 @@
     <t>Result1</t>
   </si>
   <si>
-    <t>求饶</t>
-  </si>
-  <si>
-    <t>套个近乎（失去1瓶酒）</t>
-  </si>
-  <si>
-    <t>又做白日梦了</t>
-  </si>
-  <si>
-    <t>偷偷拿走衣服</t>
-  </si>
-  <si>
-    <t>我可是正经人</t>
-  </si>
-  <si>
-    <t>小喽喽</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>街边乞丐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>给钱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>当没看到</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>开干</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>美女</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>西门龙</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出手</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>胆怯离开</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>老酒鬼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>所属场景</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -201,23 +146,266 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>路边有一乞丐，是否要施舍点银两。\n“大爷行行好…大爷行行好…”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>几个小喽喽挡住了你的去路。\n“嘿嘿…陪哥几个玩玩呗？”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>西门龙正在调戏良家妇女，是否要上前帮忙？\n“嘿嘿嘿~~小妞陪大爷我玩玩~~”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>老酒鬼虽然穿的破破烂烂，但是隐隐有不凡的气度，说不定是隐士高人。\n“酒...此酒只应天上有...嗝..好酒..”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一美女正在河中沐浴，河边的石头下压着她的衣衫，这真是千载难逢的好机会。\n“~~ 〆(???@) (((*&amp;#xF”</t>
+    <t>血渍</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧笔记本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸业微微有些泛黄，模糊的字迹似乎在规划我的后路</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>庭院中的杂草</t>
+  </si>
+  <si>
+    <t>庭院中的杂草有一米多长，荒芜了很久</t>
+  </si>
+  <si>
+    <t>翻倒的凳子</t>
+  </si>
+  <si>
+    <t>床边翻倒着一个小凳子，两条长长的拖痕从衣柜前延伸过来</t>
+  </si>
+  <si>
+    <t>打开的抽屉</t>
+  </si>
+  <si>
+    <t>笔记本</t>
+  </si>
+  <si>
+    <t>某个警察遗漏的办案笔记，记录着案件过程中的一些细节</t>
+  </si>
+  <si>
+    <t>一张画像</t>
+  </si>
+  <si>
+    <t>一张折叠起来的A4纸，是一个女生的打印画像。</t>
+  </si>
+  <si>
+    <t>一个纸团</t>
+  </si>
+  <si>
+    <t>外墙边的杂草里有一张揉乱的纸团</t>
+  </si>
+  <si>
+    <t>食品包装袋</t>
+  </si>
+  <si>
+    <t>一些细碎的食品包装袋碎片，应该是不小心遗漏在草丛里</t>
+  </si>
+  <si>
+    <t>食物残渣</t>
+  </si>
+  <si>
+    <t>细碎的食物残渣，和泥沙混在一起需要仔细辨别</t>
+  </si>
+  <si>
+    <t>被压倒的杂草</t>
+  </si>
+  <si>
+    <t>祠堂中的杂草成片的压倒了</t>
+  </si>
+  <si>
+    <t>散乱的土块</t>
+  </si>
+  <si>
+    <t>一些土墙边的杂草上覆盖着一些土块土屑</t>
+  </si>
+  <si>
+    <t>小巧的脚印</t>
+  </si>
+  <si>
+    <t>破碎的碗</t>
+  </si>
+  <si>
+    <t>泥土中埋着几个破碎的瓷碗，花色和我家里的差不多</t>
+  </si>
+  <si>
+    <t>断裂的枯枝</t>
+  </si>
+  <si>
+    <t>井边的脚印</t>
+  </si>
+  <si>
+    <t>衣服纤维</t>
+  </si>
+  <si>
+    <t>枯枝上挂着红色的纤维，和被害人包裹着的布很像</t>
+  </si>
+  <si>
+    <t>光滑的井壁</t>
+  </si>
+  <si>
+    <t>井壁光滑坚硬，不像是常年荒废的样子</t>
+  </si>
+  <si>
+    <t>井底的鞋子</t>
+  </si>
+  <si>
+    <t>井底的淤泥中有一只红色的布鞋</t>
+  </si>
+  <si>
+    <t>少女的尸体</t>
+  </si>
+  <si>
+    <t>洞口处侧卧着一具少女尸体，尸体身上包裹着落井人身上的红布</t>
+  </si>
+  <si>
+    <t>少女手中的证件</t>
+  </si>
+  <si>
+    <t>少女手中攥着一本xx大学的学生证，被水有些泡烂了，依稀可辨别部分字样</t>
+  </si>
+  <si>
+    <t>蒙灰的祭台</t>
+  </si>
+  <si>
+    <t>模糊的画像</t>
+  </si>
+  <si>
+    <t>腐烂的符纸包</t>
+  </si>
+  <si>
+    <t>噜霸天</t>
+  </si>
+  <si>
+    <t>【捡】</t>
+  </si>
+  <si>
+    <t>地上掉了两个烧饼，四下无人。你是否要捡起来？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖婆婆</t>
+  </si>
+  <si>
+    <t>【帮】</t>
+  </si>
+  <si>
+    <t>赖婆婆扛着一捆柴蹒跚的走过来。你是否要帮帮她？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【不捡】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【不帮】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经饼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经饼抱着一袋辣条，远远的望着你，神情有些害怕。你决定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【抢过来】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【放过她吧】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你要是帮我把这桶水挑回家里，我就给你2个烧饼。”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【好】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【你想的美】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“我操你特么连挑个水都不会。”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“这么点小事你也好意思要2个烧饼。”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>院墙外面被人泼了一些鸡血，浓重的血腥味呛得人难受</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽屉里灰尘不均匀，明显刚刚被人翻动过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【仔细看看】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【丢了吧】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【捡起来看看】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【无视它】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂草丛中隐藏着两个脚印，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【无视】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【有点奇怪】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【唔…】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最右边的井口附近散落着一些断裂的枯枝，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚印有些稀疏，村里和警察难道没有来过么</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【乐观点】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【唔..】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【难道…】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>福尔摩斯说，当排除了所有其它的可能性，还剩一个时，不管有多么的不可能，那都是真相</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【跳下去】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【算了别胡思乱想了】</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -819,9 +1007,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1178,273 +1372,783 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="11.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>11101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1">
+        <v>111</v>
+      </c>
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>11102</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1">
+        <v>111</v>
+      </c>
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>11103</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1">
+        <v>111</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>11104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1">
+        <v>111</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>11105</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1">
+        <v>111</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>11106</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="1">
+        <v>111</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>11107</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1">
+        <v>111</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>11108</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1">
+        <v>111</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11109</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1">
+        <v>111</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11201</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1">
+        <v>112</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>11202</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1">
+        <v>112</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>11301</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>113</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>11302</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1">
+        <v>113</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>11303</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1">
+        <v>113</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>11401</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="D18" s="1">
+        <v>114</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>11402</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D19" s="1">
+        <v>114</v>
+      </c>
+      <c r="E19" s="1">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>11403</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D20" s="1">
+        <v>114</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>11501</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4">
-        <v>1001</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2002</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>10002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D21" s="1">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>11502</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5">
-        <v>1001</v>
-      </c>
-      <c r="E5">
+      <c r="C22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2003</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>60001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>1001</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>60002</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>10004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D22" s="1">
+        <v>115</v>
+      </c>
+      <c r="E22" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>11601</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7">
-        <v>1001</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2005</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>10005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8">
-        <v>1001</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2006</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
+      <c r="D23" s="1">
+        <v>116</v>
+      </c>
+      <c r="E23" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>11602</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1">
+        <v>116</v>
+      </c>
+      <c r="E24" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>11603</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="1">
+        <v>116</v>
+      </c>
+      <c r="E25" s="1">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>11604</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1">
+        <v>116</v>
+      </c>
+      <c r="E26" s="1">
+        <v>50</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>11701</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="1">
+        <v>117</v>
+      </c>
+      <c r="E27" s="1">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>11702</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1">
+        <v>117</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>11703</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1">
+        <v>117</v>
+      </c>
+      <c r="E29" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>11704</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1">
+        <v>117</v>
+      </c>
+      <c r="E30" s="1">
+        <v>50</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>11705</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1">
+        <v>117</v>
+      </c>
+      <c r="E31" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>11706</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="1">
+        <v>117</v>
+      </c>
+      <c r="E32" s="1">
+        <v>50</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>11801</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="1">
+        <v>118</v>
+      </c>
+      <c r="E33" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>11802</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="1">
+        <v>118</v>
+      </c>
+      <c r="E34" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>11803</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="1">
+        <v>118</v>
+      </c>
+      <c r="E35" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>11804</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="1">
+        <v>118</v>
+      </c>
+      <c r="E36" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>11805</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="1">
+        <v>118</v>
+      </c>
+      <c r="E37" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Event.xlsx
+++ b/Config/Event.xlsx
@@ -36,7 +36,8 @@
             <charset val="134"/>
           </rPr>
           <t>1、战斗
-2、掉落</t>
+2、掉落
+3、事件</t>
         </r>
       </text>
     </comment>
@@ -1372,17 +1373,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.375" style="2" customWidth="1"/>
     <col min="4" max="5" width="8.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="31.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
@@ -1497,30 +1498,24 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>11101</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1">
+        <v>11100</v>
+      </c>
+      <c r="D4" s="2">
         <v>111</v>
       </c>
-      <c r="E4" s="1">
-        <v>50</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>69</v>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>30005</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>11102</v>
+        <v>11101</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>63</v>
@@ -1537,19 +1532,25 @@
       <c r="F5" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>30005</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>11103</v>
+        <v>11102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1">
         <v>111</v>
@@ -1558,15 +1559,21 @@
         <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20003</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>11104</v>
+        <v>11103</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>66</v>
@@ -1583,19 +1590,25 @@
       <c r="F7" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>30006</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>11105</v>
+        <v>11104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1">
         <v>111</v>
@@ -1604,21 +1617,21 @@
         <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>11106</v>
+        <v>11105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1">
         <v>111</v>
@@ -1627,15 +1640,15 @@
         <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>11107</v>
+        <v>11106</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>75</v>
@@ -1652,19 +1665,25 @@
       <c r="F10" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>11108</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>11108</v>
+        <v>11107</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1">
         <v>111</v>
@@ -1672,16 +1691,28 @@
       <c r="E11" s="1">
         <v>50</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>11109</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>11109</v>
+        <v>11108</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1">
         <v>111</v>
@@ -1692,32 +1723,36 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>11201</v>
+        <v>11109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>30007</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>11202</v>
+        <v>11201</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1">
         <v>112</v>
@@ -1730,16 +1765,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>11301</v>
+        <v>11202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -1749,13 +1784,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>11302</v>
+        <v>11301</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1">
         <v>113</v>
@@ -1763,16 +1798,18 @@
       <c r="E16" s="1">
         <v>50</v>
       </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>11303</v>
+        <v>11302</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1">
         <v>113</v>
@@ -1783,16 +1820,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>11401</v>
+        <v>11303</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
@@ -1800,13 +1837,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>11402</v>
+        <v>11401</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1">
         <v>114</v>
@@ -1814,22 +1851,16 @@
       <c r="E19" s="1">
         <v>50</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>11403</v>
+        <v>11402</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1">
         <v>114</v>
@@ -1838,38 +1869,44 @@
         <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>11501</v>
+        <v>11403</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>11502</v>
+        <v>11501</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1">
         <v>115</v>
@@ -1880,16 +1917,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>11601</v>
+        <v>11502</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -1897,13 +1934,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>11602</v>
+        <v>11601</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1">
         <v>116</v>
@@ -1914,13 +1951,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>11603</v>
+        <v>11602</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1">
         <v>116</v>
@@ -1928,22 +1965,16 @@
       <c r="E25" s="1">
         <v>50</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>11604</v>
+        <v>11603</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1">
         <v>116</v>
@@ -1952,41 +1983,44 @@
         <v>50</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>11701</v>
+        <v>11604</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>11702</v>
+        <v>11701</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1">
         <v>117</v>
@@ -1995,21 +2029,18 @@
         <v>50</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>11703</v>
+        <v>11702</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D29" s="1">
         <v>117</v>
@@ -2017,16 +2048,22 @@
       <c r="E29" s="1">
         <v>50</v>
       </c>
+      <c r="F29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>11704</v>
+        <v>11703</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1">
         <v>117</v>
@@ -2034,19 +2071,16 @@
       <c r="E30" s="1">
         <v>50</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>11705</v>
+        <v>11704</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1">
         <v>117</v>
@@ -2054,13 +2088,19 @@
       <c r="E31" s="1">
         <v>50</v>
       </c>
+      <c r="F31" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>11706</v>
+        <v>11705</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1">
         <v>117</v>
@@ -2068,39 +2108,36 @@
       <c r="E32" s="1">
         <v>50</v>
       </c>
-      <c r="F32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>11706</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1">
+        <v>117</v>
+      </c>
+      <c r="E33" s="1">
+        <v>50</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>11801</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D33" s="1">
-        <v>118</v>
-      </c>
-      <c r="E33" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>11802</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D34" s="1">
         <v>118</v>
@@ -2109,12 +2146,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>11803</v>
+        <v>11802</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D35" s="1">
         <v>118</v>
@@ -2123,12 +2163,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>11804</v>
+        <v>11803</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1">
         <v>118</v>
@@ -2137,17 +2177,31 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>11805</v>
+        <v>11804</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="1">
         <v>118</v>
       </c>
       <c r="E37" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>11805</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1">
+        <v>118</v>
+      </c>
+      <c r="E38" s="1">
         <v>50</v>
       </c>
     </row>

--- a/Config/Event.xlsx
+++ b/Config/Event.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\lulu_Survival\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityws\lulu_Survive\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
   <si>
     <t>事件ID</t>
   </si>
@@ -195,218 +195,292 @@
     <t>食品包装袋</t>
   </si>
   <si>
+    <t>食物残渣</t>
+  </si>
+  <si>
+    <t>细碎的食物残渣，和泥沙混在一起需要仔细辨别</t>
+  </si>
+  <si>
+    <t>被压倒的杂草</t>
+  </si>
+  <si>
+    <t>祠堂中的杂草成片的压倒了</t>
+  </si>
+  <si>
+    <t>散乱的土块</t>
+  </si>
+  <si>
+    <t>一些土墙边的杂草上覆盖着一些土块土屑</t>
+  </si>
+  <si>
+    <t>小巧的脚印</t>
+  </si>
+  <si>
+    <t>破碎的碗</t>
+  </si>
+  <si>
+    <t>泥土中埋着几个破碎的瓷碗，花色和我家里的差不多</t>
+  </si>
+  <si>
+    <t>断裂的枯枝</t>
+  </si>
+  <si>
+    <t>井边的脚印</t>
+  </si>
+  <si>
+    <t>衣服纤维</t>
+  </si>
+  <si>
+    <t>枯枝上挂着红色的纤维，和被害人包裹着的布很像</t>
+  </si>
+  <si>
+    <t>光滑的井壁</t>
+  </si>
+  <si>
+    <t>井壁光滑坚硬，不像是常年荒废的样子</t>
+  </si>
+  <si>
+    <t>井底的鞋子</t>
+  </si>
+  <si>
+    <t>井底的淤泥中有一只红色的布鞋</t>
+  </si>
+  <si>
+    <t>少女的尸体</t>
+  </si>
+  <si>
+    <t>洞口处侧卧着一具少女尸体，尸体身上包裹着落井人身上的红布</t>
+  </si>
+  <si>
+    <t>少女手中的证件</t>
+  </si>
+  <si>
+    <t>蒙灰的祭台</t>
+  </si>
+  <si>
+    <t>模糊的画像</t>
+  </si>
+  <si>
+    <t>腐烂的符纸包</t>
+  </si>
+  <si>
+    <t>噜霸天</t>
+  </si>
+  <si>
+    <t>【捡】</t>
+  </si>
+  <si>
+    <t>地上掉了两个烧饼，四下无人。你是否要捡起来？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖婆婆</t>
+  </si>
+  <si>
+    <t>【帮】</t>
+  </si>
+  <si>
+    <t>赖婆婆扛着一捆柴蹒跚的走过来。你是否要帮帮她？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【不捡】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【不帮】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经饼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经饼抱着一袋辣条，远远的望着你，神情有些害怕。你决定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【抢过来】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【放过她吧】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你要是帮我把这桶水挑回家里，我就给你2个烧饼。”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【好】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【你想的美】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“我操你特么连挑个水都不会。”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“这么点小事你也好意思要2个烧饼。”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>院墙外面被人泼了一些鸡血，浓重的血腥味呛得人难受</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽屉里灰尘不均匀，明显刚刚被人翻动过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【仔细看看】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【丢了吧】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【捡起来看看】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【无视它】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂草丛中隐藏着两个脚印，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【无视】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【有点奇怪】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【唔…】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最右边的井口附近散落着一些断裂的枯枝，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚印有些稀疏，村里和警察难道没有来过么</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【乐观点】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【唔..】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【难道…】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>福尔摩斯说，当排除了所有其它的可能性，还剩一个时，不管有多么的不可能，那都是真相</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【跳下去】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【算了别胡思乱想了】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【默默离开】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【不和他一般见识】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【不知道是谁干的】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【难道父亲有不为人知的故事？】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【物是人非事事休…】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【有人来过】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【有人来找过什么东西?】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【和我好像没什么关系】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>一些细碎的食品包装袋碎片，应该是不小心遗漏在草丛里</t>
-  </si>
-  <si>
-    <t>食物残渣</t>
-  </si>
-  <si>
-    <t>细碎的食物残渣，和泥沙混在一起需要仔细辨别</t>
-  </si>
-  <si>
-    <t>被压倒的杂草</t>
-  </si>
-  <si>
-    <t>祠堂中的杂草成片的压倒了</t>
-  </si>
-  <si>
-    <t>散乱的土块</t>
-  </si>
-  <si>
-    <t>一些土墙边的杂草上覆盖着一些土块土屑</t>
-  </si>
-  <si>
-    <t>小巧的脚印</t>
-  </si>
-  <si>
-    <t>破碎的碗</t>
-  </si>
-  <si>
-    <t>泥土中埋着几个破碎的瓷碗，花色和我家里的差不多</t>
-  </si>
-  <si>
-    <t>断裂的枯枝</t>
-  </si>
-  <si>
-    <t>井边的脚印</t>
-  </si>
-  <si>
-    <t>衣服纤维</t>
-  </si>
-  <si>
-    <t>枯枝上挂着红色的纤维，和被害人包裹着的布很像</t>
-  </si>
-  <si>
-    <t>光滑的井壁</t>
-  </si>
-  <si>
-    <t>井壁光滑坚硬，不像是常年荒废的样子</t>
-  </si>
-  <si>
-    <t>井底的鞋子</t>
-  </si>
-  <si>
-    <t>井底的淤泥中有一只红色的布鞋</t>
-  </si>
-  <si>
-    <t>少女的尸体</t>
-  </si>
-  <si>
-    <t>洞口处侧卧着一具少女尸体，尸体身上包裹着落井人身上的红布</t>
-  </si>
-  <si>
-    <t>少女手中的证件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【有村子外的人来过】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【有人在这吃过东西】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【很多人来这里搜索过】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一的可能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【废弃的祠堂里难道藏着什么?】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【找到关键了…】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【那女孩的鞋子在这…】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【原来在这里】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>少女手中攥着一本xx大学的学生证，被水有些泡烂了，依稀可辨别部分字样</t>
-  </si>
-  <si>
-    <t>蒙灰的祭台</t>
-  </si>
-  <si>
-    <t>模糊的画像</t>
-  </si>
-  <si>
-    <t>腐烂的符纸包</t>
-  </si>
-  <si>
-    <t>噜霸天</t>
-  </si>
-  <si>
-    <t>【捡】</t>
-  </si>
-  <si>
-    <t>地上掉了两个烧饼，四下无人。你是否要捡起来？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>赖婆婆</t>
-  </si>
-  <si>
-    <t>【帮】</t>
-  </si>
-  <si>
-    <t>赖婆婆扛着一捆柴蹒跚的走过来。你是否要帮帮她？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【不捡】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【不帮】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>神经饼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>神经饼抱着一袋辣条，远远的望着你，神情有些害怕。你决定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【抢过来】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【放过她吧】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>耗子</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你要是帮我把这桶水挑回家里，我就给你2个烧饼。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【好】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【你想的美】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>“我操你特么连挑个水都不会。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>“这么点小事你也好意思要2个烧饼。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>院墙外面被人泼了一些鸡血，浓重的血腥味呛得人难受</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽屉里灰尘不均匀，明显刚刚被人翻动过</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【仔细看看】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【丢了吧】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【捡起来看看】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【无视它】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂草丛中隐藏着两个脚印，</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【无视】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【有点奇怪】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【唔…】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>最右边的井口附近散落着一些断裂的枯枝，</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚印有些稀疏，村里和警察难道没有来过么</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【乐观点】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【唔..】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【难道…】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>福尔摩斯说，当排除了所有其它的可能性，还剩一个时，不管有多么的不可能，那都是真相</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【跳下去】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【算了别胡思乱想了】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【拿出来看看】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【…】</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1373,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1498,13 +1572,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>11100</v>
-      </c>
-      <c r="D4" s="2">
+        <v>11101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1">
         <v>111</v>
       </c>
-      <c r="E4" s="2">
-        <v>50</v>
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="G4" s="2">
         <v>2</v>
@@ -1512,16 +1595,19 @@
       <c r="H4" s="2">
         <v>30005</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>11101</v>
+        <v>11102</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D5" s="1">
         <v>111</v>
@@ -1530,27 +1616,27 @@
         <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>30005</v>
+        <v>20003</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>11102</v>
+        <v>11103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1">
         <v>111</v>
@@ -1559,27 +1645,27 @@
         <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>20003</v>
+        <v>30006</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>11103</v>
+        <v>11104</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D7" s="1">
         <v>111</v>
@@ -1588,27 +1674,21 @@
         <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>30006</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>11104</v>
+        <v>11105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1">
         <v>111</v>
@@ -1617,21 +1697,21 @@
         <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>11105</v>
+        <v>11106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1">
         <v>111</v>
@@ -1640,21 +1720,27 @@
         <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>11108</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>11106</v>
+        <v>11107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1">
         <v>111</v>
@@ -1663,96 +1749,91 @@
         <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
       </c>
       <c r="H10" s="2">
-        <v>11108</v>
+        <v>11109</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>11107</v>
+        <v>11108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="1">
-        <v>111</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1">
         <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>11109</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>11108</v>
+        <v>11109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="1">
-        <v>111</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>30007</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>11109</v>
+        <v>11201</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
       </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>30007</v>
-      </c>
+      <c r="F13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>11201</v>
+        <v>11202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <v>112</v>
@@ -1760,37 +1841,43 @@
       <c r="E14" s="1">
         <v>50</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>11202</v>
+        <v>11301</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>11301</v>
+        <v>11302</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1">
         <v>113</v>
@@ -1798,18 +1885,19 @@
       <c r="E16" s="1">
         <v>50</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>11302</v>
+        <v>11303</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1">
         <v>113</v>
@@ -1817,33 +1905,39 @@
       <c r="E17" s="1">
         <v>50</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>11303</v>
+        <v>11401</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>11401</v>
+        <v>11402</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>114</v>
@@ -1851,16 +1945,22 @@
       <c r="E19" s="1">
         <v>50</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>11402</v>
+        <v>11403</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>114</v>
@@ -1877,36 +1977,33 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>11403</v>
+        <v>11501</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>11501</v>
+        <v>11502</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1">
         <v>115</v>
@@ -1914,33 +2011,39 @@
       <c r="E22" s="1">
         <v>50</v>
       </c>
+      <c r="F22" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>11502</v>
+        <v>11601</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>11601</v>
+        <v>11602</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1">
         <v>116</v>
@@ -1948,16 +2051,19 @@
       <c r="E24" s="1">
         <v>50</v>
       </c>
+      <c r="F24" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>11602</v>
+        <v>11603</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1">
         <v>116</v>
@@ -1965,16 +2071,22 @@
       <c r="E25" s="1">
         <v>50</v>
       </c>
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>11603</v>
+        <v>11604</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1">
         <v>116</v>
@@ -1983,7 +2095,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>88</v>
@@ -1991,36 +2103,33 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>11604</v>
+        <v>11701</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>11701</v>
+        <v>11702</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1">
         <v>117</v>
@@ -2029,18 +2138,21 @@
         <v>50</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>11702</v>
+        <v>11703</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1">
         <v>117</v>
@@ -2049,21 +2161,18 @@
         <v>50</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>11703</v>
+        <v>11704</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1">
         <v>117</v>
@@ -2071,16 +2180,19 @@
       <c r="E30" s="1">
         <v>50</v>
       </c>
+      <c r="F30" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>11704</v>
+        <v>11705</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1">
         <v>117</v>
@@ -2089,18 +2201,24 @@
         <v>50</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2">
+        <v>11706</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>11705</v>
+        <v>11706</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1">
         <v>117</v>
@@ -2108,36 +2226,48 @@
       <c r="E32" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3</v>
+      </c>
+      <c r="H32" s="2">
+        <v>11801</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>11706</v>
+        <v>11801</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E33" s="1">
         <v>50</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>11801</v>
+        <v>11802</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="D34" s="1">
         <v>118</v>
@@ -2145,30 +2275,33 @@
       <c r="E34" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F34" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>11802</v>
+        <v>11803</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D35" s="1">
         <v>118</v>
       </c>
       <c r="E35" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F35" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>11803</v>
+        <v>11804</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1">
         <v>118</v>
@@ -2176,13 +2309,16 @@
       <c r="E36" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F36" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>11804</v>
+        <v>11805</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1">
         <v>118</v>
@@ -2190,19 +2326,8 @@
       <c r="E37" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>11805</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="1">
-        <v>118</v>
-      </c>
-      <c r="E38" s="1">
-        <v>50</v>
+      <c r="F37" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Event.xlsx
+++ b/Config/Event.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
   <si>
     <t>事件ID</t>
   </si>
@@ -401,10 +401,6 @@
   </si>
   <si>
     <t>【算了别胡思乱想了】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【默默离开】</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1450,7 +1446,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1676,6 +1672,12 @@
       <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>30004</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>68</v>
       </c>
@@ -1699,6 +1701,12 @@
       <c r="F8" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>30001</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>72</v>
       </c>
@@ -1775,8 +1783,11 @@
       <c r="E11" s="1">
         <v>50</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>97</v>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20004</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1794,7 +1805,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
@@ -1820,7 +1831,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1842,7 +1853,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1864,7 +1875,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1886,7 +1897,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1906,7 +1917,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1926,7 +1937,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1983,7 +1994,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1">
         <v>115</v>
@@ -1992,7 +2003,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2012,7 +2023,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2032,7 +2043,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2052,7 +2063,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2161,7 +2172,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2201,7 +2212,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G31" s="2">
         <v>3</v>
@@ -2215,7 +2226,7 @@
         <v>11706</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>94</v>
@@ -2256,7 +2267,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2267,7 +2278,7 @@
         <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="1">
         <v>118</v>
@@ -2276,7 +2287,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2293,7 +2304,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2310,7 +2321,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2327,7 +2338,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Event.xlsx
+++ b/Config/Event.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityws\lulu_Survive\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\lulu_Survival\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1078,14 +1078,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1446,134 +1443,134 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="11.875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>11101</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="1">
@@ -1582,27 +1579,27 @@
       <c r="E4" s="1">
         <v>50</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>30005</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>11102</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D5" s="1">
@@ -1611,27 +1608,27 @@
       <c r="E5" s="1">
         <v>50</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>20003</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>11103</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D6" s="1">
@@ -1640,27 +1637,27 @@
       <c r="E6" s="1">
         <v>50</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>30006</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>11104</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="1">
@@ -1669,27 +1666,27 @@
       <c r="E7" s="1">
         <v>50</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>30004</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>11105</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="1">
@@ -1698,27 +1695,27 @@
       <c r="E8" s="1">
         <v>50</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>30001</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>11106</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D9" s="1">
@@ -1727,27 +1724,27 @@
       <c r="E9" s="1">
         <v>50</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>11108</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>11107</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="1">
@@ -1756,72 +1753,70 @@
       <c r="E10" s="1">
         <v>50</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>3</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>11109</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>11108</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="E11" s="1">
         <v>50</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>20004</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11109</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>50</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>30007</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11201</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="1">
@@ -1830,20 +1825,18 @@
       <c r="E13" s="1">
         <v>50</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>11202</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="1">
@@ -1852,20 +1845,18 @@
       <c r="E14" s="1">
         <v>50</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>11301</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="1">
@@ -1874,20 +1865,18 @@
       <c r="E15" s="1">
         <v>50</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>11302</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="1">
@@ -1896,18 +1885,18 @@
       <c r="E16" s="1">
         <v>50</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>11303</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D17" s="1">
@@ -1916,18 +1905,18 @@
       <c r="E17" s="1">
         <v>50</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>11401</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="1">
@@ -1936,18 +1925,18 @@
       <c r="E18" s="1">
         <v>50</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>11402</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="1">
@@ -1956,21 +1945,21 @@
       <c r="E19" s="1">
         <v>50</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>11403</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="1">
@@ -1979,21 +1968,21 @@
       <c r="E20" s="1">
         <v>50</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>11501</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="1">
@@ -2002,18 +1991,18 @@
       <c r="E21" s="1">
         <v>50</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>11502</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="1">
@@ -2022,18 +2011,18 @@
       <c r="E22" s="1">
         <v>50</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>11601</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="1">
@@ -2042,18 +2031,18 @@
       <c r="E23" s="1">
         <v>50</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>11602</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="1">
@@ -2062,18 +2051,18 @@
       <c r="E24" s="1">
         <v>50</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>11603</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="1">
@@ -2082,21 +2071,21 @@
       <c r="E25" s="1">
         <v>50</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>11604</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="1">
@@ -2105,21 +2094,21 @@
       <c r="E26" s="1">
         <v>50</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>11701</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="1">
@@ -2128,18 +2117,18 @@
       <c r="E27" s="1">
         <v>50</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>11702</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="1">
@@ -2148,21 +2137,21 @@
       <c r="E28" s="1">
         <v>50</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>11703</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="1">
@@ -2171,18 +2160,18 @@
       <c r="E29" s="1">
         <v>50</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>11704</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="1">
@@ -2191,18 +2180,18 @@
       <c r="E30" s="1">
         <v>50</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>11705</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="1">
@@ -2211,24 +2200,24 @@
       <c r="E31" s="1">
         <v>50</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>3</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>11706</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>11706</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D32" s="1">
@@ -2237,27 +2226,27 @@
       <c r="E32" s="1">
         <v>50</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>3</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>11801</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>11801</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="1">
@@ -2266,18 +2255,18 @@
       <c r="E33" s="1">
         <v>50</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>11802</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D34" s="1">
@@ -2286,15 +2275,15 @@
       <c r="E34" s="1">
         <v>50</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>11803</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="1">
@@ -2303,15 +2292,15 @@
       <c r="E35" s="1">
         <v>50</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>11804</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="1">
@@ -2320,15 +2309,15 @@
       <c r="E36" s="1">
         <v>50</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>11805</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="1">
@@ -2337,7 +2326,7 @@
       <c r="E37" s="1">
         <v>50</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>115</v>
       </c>
     </row>

--- a/Config/Event.xlsx
+++ b/Config/Event.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>事件ID</t>
   </si>
@@ -147,133 +147,9 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>血渍</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧笔记本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸业微微有些泛黄，模糊的字迹似乎在规划我的后路</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>庭院中的杂草</t>
-  </si>
-  <si>
-    <t>庭院中的杂草有一米多长，荒芜了很久</t>
-  </si>
-  <si>
-    <t>翻倒的凳子</t>
-  </si>
-  <si>
-    <t>床边翻倒着一个小凳子，两条长长的拖痕从衣柜前延伸过来</t>
-  </si>
-  <si>
-    <t>打开的抽屉</t>
-  </si>
-  <si>
-    <t>笔记本</t>
-  </si>
-  <si>
-    <t>某个警察遗漏的办案笔记，记录着案件过程中的一些细节</t>
-  </si>
-  <si>
-    <t>一张画像</t>
-  </si>
-  <si>
-    <t>一张折叠起来的A4纸，是一个女生的打印画像。</t>
-  </si>
-  <si>
-    <t>一个纸团</t>
-  </si>
-  <si>
-    <t>外墙边的杂草里有一张揉乱的纸团</t>
-  </si>
-  <si>
-    <t>食品包装袋</t>
-  </si>
-  <si>
-    <t>食物残渣</t>
-  </si>
-  <si>
-    <t>细碎的食物残渣，和泥沙混在一起需要仔细辨别</t>
-  </si>
-  <si>
-    <t>被压倒的杂草</t>
-  </si>
-  <si>
-    <t>祠堂中的杂草成片的压倒了</t>
-  </si>
-  <si>
-    <t>散乱的土块</t>
-  </si>
-  <si>
-    <t>一些土墙边的杂草上覆盖着一些土块土屑</t>
-  </si>
-  <si>
-    <t>小巧的脚印</t>
-  </si>
-  <si>
-    <t>破碎的碗</t>
-  </si>
-  <si>
-    <t>泥土中埋着几个破碎的瓷碗，花色和我家里的差不多</t>
-  </si>
-  <si>
-    <t>断裂的枯枝</t>
-  </si>
-  <si>
-    <t>井边的脚印</t>
-  </si>
-  <si>
-    <t>衣服纤维</t>
-  </si>
-  <si>
-    <t>枯枝上挂着红色的纤维，和被害人包裹着的布很像</t>
-  </si>
-  <si>
-    <t>光滑的井壁</t>
-  </si>
-  <si>
-    <t>井壁光滑坚硬，不像是常年荒废的样子</t>
-  </si>
-  <si>
-    <t>井底的鞋子</t>
-  </si>
-  <si>
-    <t>井底的淤泥中有一只红色的布鞋</t>
-  </si>
-  <si>
-    <t>少女的尸体</t>
-  </si>
-  <si>
-    <t>洞口处侧卧着一具少女尸体，尸体身上包裹着落井人身上的红布</t>
-  </si>
-  <si>
-    <t>少女手中的证件</t>
-  </si>
-  <si>
-    <t>蒙灰的祭台</t>
-  </si>
-  <si>
-    <t>模糊的画像</t>
-  </si>
-  <si>
-    <t>腐烂的符纸包</t>
-  </si>
-  <si>
-    <t>噜霸天</t>
-  </si>
-  <si>
     <t>【捡】</t>
   </si>
   <si>
-    <t>地上掉了两个烧饼，四下无人。你是否要捡起来？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>赖婆婆</t>
   </si>
   <si>
@@ -296,10 +172,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>神经饼抱着一袋辣条，远远的望着你，神情有些害怕。你决定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>【抢过来】</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -332,151 +204,75 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>院墙外面被人泼了一些鸡血，浓重的血腥味呛得人难受</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽屉里灰尘不均匀，明显刚刚被人翻动过</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【仔细看看】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【丢了吧】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【捡起来看看】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【无视它】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂草丛中隐藏着两个脚印，</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【无视】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【有点奇怪】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【唔…】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>最右边的井口附近散落着一些断裂的枯枝，</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚印有些稀疏，村里和警察难道没有来过么</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【乐观点】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【唔..】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【难道…】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>福尔摩斯说，当排除了所有其它的可能性，还剩一个时，不管有多么的不可能，那都是真相</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【跳下去】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【算了别胡思乱想了】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【不和他一般见识】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【不知道是谁干的】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【难道父亲有不为人知的故事？】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【物是人非事事休…】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【有人来过】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【有人来找过什么东西?】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【和我好像没什么关系】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些细碎的食品包装袋碎片，应该是不小心遗漏在草丛里</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【有村子外的人来过】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【有人在这吃过东西】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【很多人来这里搜索过】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一的可能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【废弃的祠堂里难道藏着什么?】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【找到关键了…】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【那女孩的鞋子在这…】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【原来在这里】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女手中攥着一本xx大学的学生证，被水有些泡烂了，依稀可辨别部分字样</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【拿出来看看】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>【…】</t>
+    <t>30001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>30002</t>
+  </si>
+  <si>
+    <t>30003</t>
+  </si>
+  <si>
+    <t>30004</t>
+  </si>
+  <si>
+    <t>30005</t>
+  </si>
+  <si>
+    <t>30006</t>
+  </si>
+  <si>
+    <t>30007</t>
+  </si>
+  <si>
+    <t>30008</t>
+  </si>
+  <si>
+    <t>30009</t>
+  </si>
+  <si>
+    <t>地上有个烧饼，四下无人。你是否要捡起来？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧饼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20005</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经饼怀抱一个烧饼，远远的望着你，神情有些害怕。你决定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20011</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>30009</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1440,17 +1236,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="A1:XFD1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.25" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
@@ -1564,217 +1360,217 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>11101</v>
+      <c r="A4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1">
-        <v>111</v>
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="1">
-        <v>30005</v>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>11102</v>
+      <c r="A5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="1">
-        <v>111</v>
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E5" s="1">
         <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
-        <v>20003</v>
+      <c r="H5" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>11103</v>
+      <c r="A6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="1">
-        <v>111</v>
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="1">
-        <v>30006</v>
+      <c r="H6" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>11104</v>
+      <c r="A7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="1">
-        <v>111</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>30004</v>
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>11105</v>
+      <c r="A8" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1">
-        <v>111</v>
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="1">
-        <v>30001</v>
+      <c r="H8" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>11106</v>
+      <c r="A9" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="1">
-        <v>111</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="H9" s="1">
-        <v>11108</v>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>11107</v>
+      <c r="A10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1">
-        <v>111</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
       </c>
-      <c r="H10" s="1">
-        <v>11109</v>
+      <c r="H10" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>11108</v>
+      <c r="A11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
@@ -1782,552 +1578,22 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1">
-        <v>20004</v>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11109</v>
+      <c r="A12" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>30007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11201</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="1">
-        <v>112</v>
-      </c>
-      <c r="E13" s="1">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>11202</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1">
-        <v>112</v>
-      </c>
-      <c r="E14" s="1">
-        <v>50</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>11301</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1">
-        <v>113</v>
-      </c>
-      <c r="E15" s="1">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>11302</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1">
-        <v>113</v>
-      </c>
-      <c r="E16" s="1">
-        <v>50</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>11303</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="1">
-        <v>113</v>
-      </c>
-      <c r="E17" s="1">
-        <v>50</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>11401</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1">
-        <v>114</v>
-      </c>
-      <c r="E18" s="1">
-        <v>50</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>11402</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1">
-        <v>114</v>
-      </c>
-      <c r="E19" s="1">
-        <v>50</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>11403</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1">
-        <v>114</v>
-      </c>
-      <c r="E20" s="1">
-        <v>50</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>11501</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="1">
-        <v>115</v>
-      </c>
-      <c r="E21" s="1">
-        <v>50</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>11502</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="1">
-        <v>115</v>
-      </c>
-      <c r="E22" s="1">
-        <v>50</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>11601</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="1">
-        <v>116</v>
-      </c>
-      <c r="E23" s="1">
-        <v>50</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>11602</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="1">
-        <v>116</v>
-      </c>
-      <c r="E24" s="1">
-        <v>50</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>11603</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="1">
-        <v>116</v>
-      </c>
-      <c r="E25" s="1">
-        <v>50</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>11604</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="1">
-        <v>116</v>
-      </c>
-      <c r="E26" s="1">
-        <v>50</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>11701</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="1">
-        <v>117</v>
-      </c>
-      <c r="E27" s="1">
-        <v>50</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>11702</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="1">
-        <v>117</v>
-      </c>
-      <c r="E28" s="1">
-        <v>50</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>11703</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="1">
-        <v>117</v>
-      </c>
-      <c r="E29" s="1">
-        <v>50</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>11704</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="1">
-        <v>117</v>
-      </c>
-      <c r="E30" s="1">
-        <v>50</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>11705</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="1">
-        <v>117</v>
-      </c>
-      <c r="E31" s="1">
-        <v>50</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="1">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1">
-        <v>11706</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>11706</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="1">
-        <v>117</v>
-      </c>
-      <c r="E32" s="1">
-        <v>50</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="1">
-        <v>3</v>
-      </c>
-      <c r="H32" s="1">
-        <v>11801</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>11801</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="1">
-        <v>118</v>
-      </c>
-      <c r="E33" s="1">
-        <v>50</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>11802</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="1">
-        <v>118</v>
-      </c>
-      <c r="E34" s="1">
-        <v>50</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>11803</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="1">
-        <v>118</v>
-      </c>
-      <c r="E35" s="1">
-        <v>50</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>11804</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="1">
-        <v>118</v>
-      </c>
-      <c r="E36" s="1">
-        <v>50</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>11805</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="1">
-        <v>118</v>
-      </c>
-      <c r="E37" s="1">
-        <v>50</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
